--- a/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.5269177717591226</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.02656855596750614</v>
+        <v>-0.02656855596750683</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5722747269271977</v>
+        <v>-0.6281353339382514</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.577377565077945</v>
+        <v>-0.629210862354681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.563188580265781</v>
+        <v>-1.480223359721708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7815214033353696</v>
+        <v>-0.924908115885938</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.323618355077245</v>
+        <v>-1.212356114314458</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.489400246794146</v>
+        <v>-1.493112895040088</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2057440320126973</v>
+        <v>-0.3127723275013365</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6787670441059931</v>
+        <v>-0.5087626477058045</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9671171918991155</v>
+        <v>-1.027571180715412</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.270285330434715</v>
+        <v>2.348376751932182</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.289100900971262</v>
+        <v>2.178583067472373</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.297532496397325</v>
+        <v>1.30588915048474</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.347863625470584</v>
+        <v>2.243447735094382</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.028437212686358</v>
+        <v>2.017729957038938</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.495983263392357</v>
+        <v>1.512403512928456</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.98162676780081</v>
+        <v>1.950224588305721</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.637509558190599</v>
+        <v>1.694537550812981</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.162888044126793</v>
+        <v>1.03089584301498</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1817579307333246</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.009164704654209328</v>
+        <v>-0.009164704654209568</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2816217880072764</v>
+        <v>-0.281383287585778</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2491323452845072</v>
+        <v>-0.3014641957858964</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6491622362349878</v>
+        <v>-0.6368987632015976</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1868687447997838</v>
+        <v>-0.2112305220720747</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3047114244689109</v>
+        <v>-0.2884201810722958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3371640083442564</v>
+        <v>-0.3354302779532711</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06020155574081095</v>
+        <v>-0.09038771740800888</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1969829608650599</v>
+        <v>-0.1556517177343834</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2957960602014396</v>
+        <v>-0.307444154531368</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.591959573894796</v>
+        <v>1.654546691793934</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.636012155313395</v>
+        <v>1.63807312908341</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.038572588914463</v>
+        <v>1.007942008100743</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8111993141052762</v>
+        <v>0.7602555624431813</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6795724913840477</v>
+        <v>0.6718856908240938</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4956126027716055</v>
+        <v>0.507069521087103</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.867488455458829</v>
+        <v>0.8335410993478194</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6573529199641547</v>
+        <v>0.703597600811496</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5071354865547693</v>
+        <v>0.4170999344794153</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01872162636364881</v>
+        <v>0.1324672718726442</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2463040905091486</v>
+        <v>-0.3100620144499161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6364792242320141</v>
+        <v>0.6246873920644735</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3831000339018558</v>
+        <v>0.195249216369027</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.05816605877225476</v>
+        <v>0.1460073999149741</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2688160353873066</v>
+        <v>-0.3990398266610014</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4440236722423083</v>
+        <v>0.4937643200597481</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.157943703548928</v>
+        <v>0.1959008635641683</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5757087176392719</v>
+        <v>0.4963198716267733</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.332655032882205</v>
+        <v>2.335227576574632</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.806964257930078</v>
+        <v>1.727597278108479</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.961494594355595</v>
+        <v>2.982331198757175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.362957017483279</v>
+        <v>3.326238892986903</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.90309176639549</v>
+        <v>2.736742361541393</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.530367239645295</v>
+        <v>2.289121495716628</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.387094249990078</v>
+        <v>2.458430873648829</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.041313450731818</v>
+        <v>1.973145821295455</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.266428596152362</v>
+        <v>2.29794291169762</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.006216900062916265</v>
+        <v>0.03919936590159977</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1023880110861597</v>
+        <v>-0.1221586311653216</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2251914439377734</v>
+        <v>0.2011287253326035</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08168404744650605</v>
+        <v>0.03826154853927136</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01800551355110789</v>
+        <v>0.02327273166676672</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06111385799331814</v>
+        <v>-0.07696606954078898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1265402931201745</v>
+        <v>0.143950391590885</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0426952776283798</v>
+        <v>0.04796278883344</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.157727208063775</v>
+        <v>0.1362325401944827</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.503892351109033</v>
+        <v>1.449780469535156</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.138702594511613</v>
+        <v>1.043234524794813</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.832617805427983</v>
+        <v>1.773445851984496</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.009847280894359</v>
+        <v>0.9500234544075371</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8569847516274895</v>
+        <v>0.8133108490318071</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7435886377472146</v>
+        <v>0.7159440385671266</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9069179660211903</v>
+        <v>0.9364605411211701</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8022843402946721</v>
+        <v>0.7345810429851443</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9015927615819478</v>
+        <v>0.8978605487237803</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.731632900874247</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.4417333092556319</v>
+        <v>0.4417333092556313</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.638117648845786</v>
+        <v>-1.472406567694904</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.178109771188774</v>
+        <v>-1.877808769380078</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.296746316360999</v>
+        <v>-3.386320714427336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2437856774680685</v>
+        <v>0.1258745463892646</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.07185494011280019</v>
+        <v>-0.05580514244595759</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.206173894926201</v>
+        <v>-0.9094957385554701</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1663641885910653</v>
+        <v>-0.01203700952720179</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1362531748415301</v>
+        <v>-0.1570117127062189</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.719988105469582</v>
+        <v>-1.324641803598567</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.11971190364514</v>
+        <v>4.193410270512222</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.03454085931666</v>
+        <v>3.237978199212995</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.211071458764589</v>
+        <v>1.306383703893492</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.372453540275116</v>
+        <v>6.514069579203333</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.994374314961549</v>
+        <v>5.943841898871501</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.115372106671629</v>
+        <v>4.336597766565992</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.32420394180915</v>
+        <v>4.199467590043573</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.683432499610587</v>
+        <v>3.861556674611038</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.165652240221278</v>
+        <v>2.346498145492306</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1185767532058754</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2591124632332373</v>
+        <v>-0.2591124632332374</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7695323113115954</v>
@@ -1188,7 +1188,7 @@
         <v>0.7320011592325845</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4631429875152864</v>
+        <v>0.4631429875152865</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5196907807470723</v>
@@ -1197,7 +1197,7 @@
         <v>0.4268782785895632</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1088951096710591</v>
+        <v>0.1088951096710589</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3351741498624127</v>
+        <v>-0.2890154696836684</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4302432445100968</v>
+        <v>-0.37698286189866</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6028387057997254</v>
+        <v>-0.6294512404273204</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0001375777369399492</v>
+        <v>0.005703102766575784</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02553299051895999</v>
+        <v>-0.01280849856273223</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2383805346662075</v>
+        <v>-0.1824946580745892</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.008419612844396749</v>
+        <v>-0.009762766610894294</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04197379713047152</v>
+        <v>-0.0355113158254517</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3334652804249445</v>
+        <v>-0.2612422216184697</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.503290992429694</v>
+        <v>1.476303010871399</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.107628124972733</v>
+        <v>1.286493671478252</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4562478904743386</v>
+        <v>0.5136757704684543</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.447122685646884</v>
+        <v>2.510596468539853</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.278520695981489</v>
+        <v>2.296048649473934</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.472215142421759</v>
+        <v>1.625233012761946</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.367610967786935</v>
+        <v>1.2633416604066</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.117425999232017</v>
+        <v>1.22692331334663</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7144114853708724</v>
+        <v>0.8065641762956575</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6982841789033294</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9557050728837079</v>
+        <v>0.9557050728837085</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.59828477864128</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09349888450342984</v>
+        <v>0.1399875625812794</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1046415583415619</v>
+        <v>-0.1319015838765572</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02404152860528831</v>
+        <v>0.1276145336231519</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6572757102181559</v>
+        <v>0.4664248688645601</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3961272956661216</v>
+        <v>0.3435622206146497</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05974082625330041</v>
+        <v>0.08755710469750928</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.68696829675312</v>
+        <v>0.6240070722465543</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4075754305749507</v>
+        <v>0.3473286926959946</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3230409617399278</v>
+        <v>0.3584608129583771</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.929117913126602</v>
+        <v>1.865273382042816</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.520430000499865</v>
+        <v>1.509767965894633</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.836141561524168</v>
+        <v>1.800460248735375</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.698762204189639</v>
+        <v>2.602152611145198</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.418194994044516</v>
+        <v>2.470049416097198</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.963673053336328</v>
+        <v>1.976716013374627</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.07870718372585</v>
+        <v>1.968581748154505</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.774443968355703</v>
+        <v>1.679616578920001</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.57032209526785</v>
+        <v>1.611299531410757</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2924390446650126</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4002460415679987</v>
+        <v>0.400246041567999</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4083051912394985</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03484042685947387</v>
+        <v>0.04299135233766988</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03632450718477809</v>
+        <v>-0.04699535781422527</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.005061484307322865</v>
+        <v>0.04897146292280385</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1406502714045431</v>
+        <v>0.1018576559839408</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08644194520469413</v>
+        <v>0.08263594763042853</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01075291720336763</v>
+        <v>0.02071684466794585</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1906565219635188</v>
+        <v>0.1785884895587938</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09966319844932725</v>
+        <v>0.09520024135018385</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1016975951930264</v>
+        <v>0.101002065200064</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9631984599121147</v>
+        <v>0.9328850404079083</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7855652733515418</v>
+        <v>0.7317688935216771</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8954641322145205</v>
+        <v>0.8877653213870833</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7871868007661302</v>
+        <v>0.7678269878366715</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6825601002294361</v>
+        <v>0.7253875040233331</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5817568541587177</v>
+        <v>0.6001888881652045</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.731765656358864</v>
+        <v>0.6897923189300696</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.630259308569706</v>
+        <v>0.5850823447004482</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5591460971875281</v>
+        <v>0.567136110901893</v>
       </c>
     </row>
     <row r="28">
